--- a/explore/explore.xlsx
+++ b/explore/explore.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="206" yWindow="51" windowWidth="30720" windowHeight="13251"/>
+    <workbookView xWindow="210" yWindow="45" windowWidth="30720" windowHeight="13245"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -212,9 +212,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="170" formatCode="0.000%"/>
-    <numFmt numFmtId="174" formatCode="yyyy\-mm"/>
-    <numFmt numFmtId="175" formatCode="&quot;$&quot;#,##0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -275,13 +275,13 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -589,19 +589,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.3828125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.15234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.3828125" customWidth="1"/>
-    <col min="6" max="7" width="9.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
@@ -621,19 +621,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="7">
-        <f>12.671/100</f>
-        <v>0.12670999999999999</v>
+        <v>10</v>
+      </c>
+      <c r="B3" s="8">
+        <v>10.741</v>
       </c>
       <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1</v>
+        <v>0.16</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.27705600000000002</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -645,13 +644,12 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7">
-        <f>10.985/100</f>
-        <v>0.10984999999999999</v>
+      <c r="B4" s="8">
+        <v>10.984999999999999</v>
       </c>
       <c r="C4" s="3">
         <v>0.16</v>
@@ -669,19 +667,18 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="7">
-        <f>10.741/100</f>
-        <v>0.10740999999999999</v>
+        <v>3</v>
+      </c>
+      <c r="B5" s="8">
+        <v>12.670999999999999</v>
       </c>
       <c r="C5" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.27705600000000002</v>
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -693,10 +690,19 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="B7" s="8">
+        <v>10.699</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.27704999999999996</v>
+      </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
@@ -707,18 +713,18 @@
         <v>44895</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="7">
-        <v>0.11029</v>
+      <c r="B8" s="8">
+        <v>11.029</v>
       </c>
       <c r="C8" s="3">
-        <v>0.16</v>
+        <v>0.27</v>
       </c>
       <c r="D8" s="1">
-        <v>0.27704999999999996</v>
+        <v>0.3871</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
@@ -730,12 +736,12 @@
         <v>44895</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="7">
-        <v>0.12199</v>
+      <c r="B9" s="8">
+        <v>12.199</v>
       </c>
       <c r="C9" s="3">
         <v>0.66</v>
@@ -753,12 +759,12 @@
         <v>44895</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="7">
-        <v>0.13699</v>
+      <c r="B10" s="8">
+        <v>13.699</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -776,12 +782,15 @@
         <v>44895</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="7">
-        <v>0.11047</v>
+      <c r="B12" s="8">
+        <v>11.047000000000001</v>
       </c>
       <c r="C12" s="3">
         <v>0.16</v>
@@ -799,12 +808,15 @@
         <v>44166</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="7">
-        <v>0.10732999999999999</v>
+      <c r="B14" s="8">
+        <v>10.733000000000001</v>
       </c>
       <c r="C14" s="3">
         <v>0.16</v>
@@ -822,12 +834,12 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="7">
-        <v>0.10631</v>
+      <c r="B15" s="8">
+        <v>10.631</v>
       </c>
       <c r="C15" s="3">
         <v>0.16</v>
@@ -845,16 +857,17 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="8"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="7">
-        <v>0.10715</v>
+      <c r="B17" s="8">
+        <v>10.715</v>
       </c>
       <c r="C17" s="3">
         <v>0.16</v>
@@ -872,12 +885,12 @@
         <v>44925</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="7">
-        <v>0.11615</v>
+      <c r="B18" s="8">
+        <v>11.615</v>
       </c>
       <c r="C18" s="3">
         <v>0.46</v>
@@ -895,12 +908,12 @@
         <v>44925</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="7">
-        <v>0.12665000000000001</v>
+      <c r="B19" s="8">
+        <v>12.664999999999999</v>
       </c>
       <c r="C19" s="3">
         <v>0.81</v>
@@ -918,12 +931,12 @@
         <v>44925</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="7">
-        <v>0.13714999999999999</v>
+      <c r="B20" s="8">
+        <v>13.715</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -941,16 +954,17 @@
         <v>44925</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="8"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="7">
-        <v>0.11119999999999999</v>
+      <c r="B22" s="8">
+        <v>11.12</v>
       </c>
       <c r="C22" s="3">
         <v>0.16</v>
@@ -968,12 +982,12 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="7">
-        <v>0.11940000000000001</v>
+      <c r="B23" s="8">
+        <v>11.94</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
@@ -991,17 +1005,17 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B24" s="7"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="8"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="7">
-        <v>0.10981</v>
+      <c r="B25" s="8">
+        <v>10.981</v>
       </c>
       <c r="C25" s="3">
         <v>0.16</v>
@@ -1019,12 +1033,12 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="7">
-        <v>0.10879</v>
+      <c r="B26" s="8">
+        <v>10.879</v>
       </c>
       <c r="C26" s="3">
         <v>0.16</v>
@@ -1042,17 +1056,17 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B27" s="7"/>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="8"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="7">
-        <v>0.90429999999999999</v>
+      <c r="B28" s="8">
+        <v>90.43</v>
       </c>
       <c r="C28" s="3">
         <v>0.16</v>
@@ -1070,12 +1084,12 @@
         <v>44136</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="7">
-        <v>0.10088999999999999</v>
+      <c r="B29" s="8">
+        <v>10.089</v>
       </c>
       <c r="C29" s="3">
         <v>0.36</v>
@@ -1093,15 +1107,15 @@
         <v>44136</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B30" s="7"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="8"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="7">
-        <v>0.1043</v>
+      <c r="B31" s="8">
+        <v>10.43</v>
       </c>
       <c r="C31" s="3">
         <v>0.16</v>
@@ -1119,15 +1133,15 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B32" s="7"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="8"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="7">
-        <v>9.9779999999999994E-2</v>
+      <c r="B33" s="8">
+        <v>9.9779999999999998</v>
       </c>
       <c r="C33" s="3">
         <v>0.16</v>
@@ -1145,15 +1159,15 @@
         <v>44531</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B34" s="7"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="8"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="7">
-        <v>0.11494</v>
+      <c r="B35" s="8">
+        <v>11.494</v>
       </c>
       <c r="C35" s="3">
         <v>0.16</v>
@@ -1171,12 +1185,12 @@
         <v>44166</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="7">
-        <v>0.11624</v>
+      <c r="B36" s="8">
+        <v>11.624000000000001</v>
       </c>
       <c r="C36" s="3">
         <v>0.21</v>
@@ -1194,12 +1208,12 @@
         <v>44166</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="7">
-        <v>0.12428</v>
+      <c r="B37" s="8">
+        <v>12.428000000000001</v>
       </c>
       <c r="C37" s="3">
         <v>1</v>
@@ -1217,12 +1231,15 @@
         <v>44166</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="8"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="7">
-        <v>0.10401000000000001</v>
+      <c r="B39" s="8">
+        <v>10.401</v>
       </c>
       <c r="C39" s="3">
         <v>0.16</v>
@@ -1240,12 +1257,12 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="7">
-        <v>0.10521</v>
+      <c r="B40" s="8">
+        <v>10.521000000000001</v>
       </c>
       <c r="C40" s="3">
         <v>0.21</v>
@@ -1263,12 +1280,12 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="7">
-        <v>0.12801000000000001</v>
+      <c r="B41" s="8">
+        <v>12.801</v>
       </c>
       <c r="C41" s="3">
         <v>1</v>
@@ -1286,13 +1303,15 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="8"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="7">
-        <f>11.026/100</f>
-        <v>0.11026</v>
+      <c r="B43" s="8">
+        <v>11.026</v>
       </c>
       <c r="C43" s="3">
         <v>0.16</v>
@@ -1310,13 +1329,12 @@
         <v>44166</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="7">
-        <f>11.263/100</f>
-        <v>0.11262999999999999</v>
+      <c r="B44" s="8">
+        <v>11.263</v>
       </c>
       <c r="C44" s="3">
         <v>0.26</v>
@@ -1334,13 +1352,12 @@
         <v>44166</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="7">
-        <f>13.063/100</f>
-        <v>0.13063</v>
+      <c r="B45" s="8">
+        <v>13.063000000000001</v>
       </c>
       <c r="C45" s="3">
         <v>1</v>
@@ -1358,18 +1375,17 @@
         <v>44166</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B46" s="7"/>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="8"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="7">
-        <f>13.957/100</f>
-        <v>0.13957</v>
+      <c r="B47" s="8">
+        <v>13.957000000000001</v>
       </c>
       <c r="C47" s="3">
         <v>0.16</v>
@@ -1384,18 +1400,17 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B48" s="7"/>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="8"/>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="7">
-        <f>10.87/100</f>
-        <v>0.10869999999999999</v>
+      <c r="B49" s="8">
+        <v>10.87</v>
       </c>
       <c r="C49" s="3">
         <v>0.16</v>
@@ -1413,13 +1428,12 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="7">
-        <f>11.34/100</f>
-        <v>0.1134</v>
+      <c r="B50" s="8">
+        <v>11.34</v>
       </c>
       <c r="C50" s="3">
         <v>0.62</v>
@@ -1437,13 +1451,12 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="7">
-        <f>11.75/100</f>
-        <v>0.11749999999999999</v>
+      <c r="B51" s="8">
+        <v>11.75</v>
       </c>
       <c r="C51" s="3">
         <v>1</v>
@@ -1461,17 +1474,17 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B52" s="7"/>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="8"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="7">
-        <v>0.1079</v>
+      <c r="B53" s="8">
+        <v>10.79</v>
       </c>
       <c r="C53" s="3">
         <v>0.16</v>
@@ -1489,13 +1502,12 @@
         <v>44743</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="7">
-        <f>0.10885</f>
-        <v>0.10885</v>
+      <c r="B54" s="8">
+        <v>10.885</v>
       </c>
       <c r="C54" s="3">
         <v>0.16</v>
@@ -1513,16 +1525,15 @@
         <v>44743</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B55" s="7"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="8"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B56" s="7">
-        <f>10.624/100</f>
-        <v>0.10624</v>
+      <c r="B56" s="8">
+        <v>10.624000000000001</v>
       </c>
       <c r="C56" s="3">
         <v>0.16</v>
@@ -1540,13 +1551,12 @@
         <v>44044</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B57" s="7">
-        <f>10.749/100</f>
-        <v>0.10749</v>
+      <c r="B57" s="8">
+        <v>10.749000000000001</v>
       </c>
       <c r="C57" s="3">
         <v>0.21</v>
@@ -1564,13 +1574,12 @@
         <v>44044</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B58" s="7">
-        <f>13.124/100</f>
-        <v>0.13124</v>
+      <c r="B58" s="8">
+        <v>13.124000000000001</v>
       </c>
       <c r="C58" s="3">
         <v>1</v>
@@ -1588,17 +1597,17 @@
         <v>44044</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B59" s="7"/>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="8"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B60" s="7">
-        <v>0.10692</v>
+      <c r="B60" s="8">
+        <v>10.692</v>
       </c>
       <c r="C60" s="3">
         <v>0.16</v>
@@ -1616,12 +1625,12 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B61" s="7">
-        <v>0.10732999999999999</v>
+      <c r="B61" s="8">
+        <v>10.733000000000001</v>
       </c>
       <c r="C61" s="3">
         <v>0.16</v>
@@ -1639,18 +1648,17 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B62" s="7"/>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="8"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B63" s="7">
-        <f>10.654 /100</f>
-        <v>0.10654</v>
+      <c r="B63" s="8">
+        <v>10.654</v>
       </c>
       <c r="C63" s="3">
         <v>0.16</v>
@@ -1668,13 +1676,12 @@
         <v>44531</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B64" s="7">
-        <f>11.494/100</f>
-        <v>0.11494</v>
+      <c r="B64" s="8">
+        <v>11.494</v>
       </c>
       <c r="C64" s="3">
         <v>0.51</v>
@@ -1692,13 +1699,12 @@
         <v>44531</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B65" s="7">
-        <f>12.718/100</f>
-        <v>0.12717999999999999</v>
+      <c r="B65" s="8">
+        <v>12.718</v>
       </c>
       <c r="C65" s="3">
         <v>1</v>
@@ -1716,16 +1722,15 @@
         <v>44531</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B66" s="7"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="8"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B67" s="7">
-        <f>10.43/100</f>
-        <v>0.1043</v>
+      <c r="B67" s="8">
+        <v>10.43</v>
       </c>
       <c r="C67" s="3">
         <v>0.16</v>
@@ -1743,17 +1748,17 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B68" s="7"/>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="8"/>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B69" s="7">
-        <v>0.10249</v>
+      <c r="B69" s="8">
+        <v>10.249000000000001</v>
       </c>
       <c r="C69" s="3">
         <v>0.16</v>
@@ -1771,18 +1776,17 @@
         <v>44682</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B70" s="7"/>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="8"/>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B71" s="7">
-        <f>10.866/100</f>
-        <v>0.10865999999999999</v>
+      <c r="B71" s="8">
+        <v>10.866</v>
       </c>
       <c r="C71" s="3">
         <v>0.16</v>
@@ -1800,13 +1804,12 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B72" s="7">
-        <f>11.1666/100</f>
-        <v>0.111666</v>
+      <c r="B72" s="8">
+        <v>11.167</v>
       </c>
       <c r="C72" s="3">
         <v>0.25</v>
@@ -1824,13 +1827,12 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B73" s="7">
-        <f>13.866/100</f>
-        <v>0.13866000000000001</v>
+      <c r="B73" s="8">
+        <v>13.866</v>
       </c>
       <c r="C73" s="3">
         <v>1</v>
@@ -1850,12 +1852,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="http://masspowerchoice.com/acton"/>
+    <hyperlink ref="A5" r:id="rId1" display="http://masspowerchoice.com/acton"/>
     <hyperlink ref="A4" r:id="rId2" display="http://masspowerchoice.com/acton"/>
-    <hyperlink ref="A5" r:id="rId3" display="http://masspowerchoice.com/acton"/>
-    <hyperlink ref="E3" r:id="rId4" display="https://masspowerchoice.com/"/>
+    <hyperlink ref="A3" r:id="rId3" display="http://masspowerchoice.com/acton"/>
+    <hyperlink ref="E5" r:id="rId4" display="https://masspowerchoice.com/"/>
     <hyperlink ref="E4" r:id="rId5" display="https://masspowerchoice.com/"/>
-    <hyperlink ref="E5" r:id="rId6" display="https://masspowerchoice.com/"/>
+    <hyperlink ref="E3" r:id="rId6" display="https://masspowerchoice.com/"/>
     <hyperlink ref="A7" r:id="rId7" display="https://arlingtoncca.com/"/>
     <hyperlink ref="A8" r:id="rId8" display="https://arlingtoncca.com/"/>
     <hyperlink ref="A9" r:id="rId9" display="https://arlingtoncca.com/"/>
@@ -1948,6 +1950,7 @@
     <hyperlink ref="E73" r:id="rId96" display="http://goodenergy.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId97"/>
 </worksheet>
 </file>
 
@@ -1959,17 +1962,17 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="83" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1977,7 +1980,7 @@
         <v>0.27705600000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1985,7 +1988,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2005,7 +2008,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/explore/explore.xlsx
+++ b/explore/explore.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="64">
   <si>
     <t>Chelmsford Choice</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>Winchester WinPower Basic</t>
+  </si>
+  <si>
+    <t>Tewksbury missing</t>
   </si>
 </sst>
 </file>
@@ -585,11 +588,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,15 +811,12 @@
         <v>44166</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
-    </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="8">
-        <v>10.733000000000001</v>
+        <v>10.631</v>
       </c>
       <c r="C14" s="3">
         <v>0.16</v>
@@ -836,10 +836,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="8">
-        <v>10.631</v>
+        <v>10.733000000000001</v>
       </c>
       <c r="C15" s="3">
         <v>0.16</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="B28" s="8">
-        <v>90.43</v>
+        <v>9.4030000000000005</v>
       </c>
       <c r="C28" s="3">
         <v>0.16</v>
@@ -1603,114 +1603,73 @@
       <c r="G59" s="6"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B60" s="8">
+      <c r="B62" s="8">
         <v>10.692</v>
       </c>
-      <c r="C60" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="D60" s="1">
+      <c r="C62" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="D62" s="1">
         <v>0.27704999999999996</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E62" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F62" s="6">
         <v>43770</v>
       </c>
-      <c r="G60" s="6">
+      <c r="G62" s="6">
         <v>44501</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B61" s="8">
-        <v>10.733000000000001</v>
-      </c>
-      <c r="C61" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="D61" s="3">
-        <v>1</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F61" s="6">
-        <v>43770</v>
-      </c>
-      <c r="G61" s="6">
-        <v>44501</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="8"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B63" s="8">
-        <v>10.654</v>
+        <v>10.733000000000001</v>
       </c>
       <c r="C63" s="3">
         <v>0.16</v>
       </c>
-      <c r="D63" s="1">
-        <v>0.27704999999999996</v>
+      <c r="D63" s="3">
+        <v>1</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F63" s="6">
-        <v>43709</v>
+        <v>43770</v>
       </c>
       <c r="G63" s="6">
-        <v>44531</v>
+        <v>44501</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B64" s="8">
-        <v>11.494</v>
-      </c>
-      <c r="C64" s="3">
-        <v>0.51</v>
-      </c>
-      <c r="D64" s="3">
-        <v>0.51</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F64" s="6">
-        <v>43709</v>
-      </c>
-      <c r="G64" s="6">
-        <v>44531</v>
-      </c>
+      <c r="B64" s="8"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B65" s="8">
-        <v>12.718</v>
+        <v>10.654</v>
       </c>
       <c r="C65" s="3">
-        <v>1</v>
-      </c>
-      <c r="D65" s="3">
-        <v>1</v>
+        <v>0.16</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0.27704999999999996</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>14</v>
@@ -1723,57 +1682,75 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B66" s="8"/>
+      <c r="A66" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B66" s="8">
+        <v>11.494</v>
+      </c>
+      <c r="C66" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="D66" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="6">
+        <v>43709</v>
+      </c>
+      <c r="G66" s="6">
+        <v>44531</v>
+      </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B67" s="8">
-        <v>10.43</v>
+        <v>12.718</v>
       </c>
       <c r="C67" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="D67" s="1">
-        <v>0.27704999999999996</v>
+        <v>1</v>
+      </c>
+      <c r="D67" s="3">
+        <v>1</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F67" s="6">
-        <v>43344</v>
+        <v>43709</v>
       </c>
       <c r="G67" s="6">
-        <v>44197</v>
+        <v>44531</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B68" s="8"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B69" s="8">
-        <v>10.249000000000001</v>
+        <v>10.43</v>
       </c>
       <c r="C69" s="3">
         <v>0.16</v>
       </c>
-      <c r="D69" s="3">
-        <v>1</v>
+      <c r="D69" s="1">
+        <v>0.27704999999999996</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F69" s="6">
-        <v>43586</v>
+        <v>43344</v>
       </c>
       <c r="G69" s="6">
-        <v>44682</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -1783,62 +1760,44 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B71" s="8">
-        <v>10.866</v>
+        <v>10.249000000000001</v>
       </c>
       <c r="C71" s="3">
         <v>0.16</v>
       </c>
-      <c r="D71" s="1">
-        <v>0.27704999999999996</v>
+      <c r="D71" s="3">
+        <v>1</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F71" s="6">
-        <v>43831</v>
+        <v>43586</v>
       </c>
       <c r="G71" s="6">
-        <v>44896</v>
+        <v>44682</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B72" s="8">
-        <v>11.167</v>
-      </c>
-      <c r="C72" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="D72" s="1">
-        <v>0.36709999999999998</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F72" s="6">
-        <v>43831</v>
-      </c>
-      <c r="G72" s="6">
-        <v>44896</v>
-      </c>
+      <c r="B72" s="8"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B73" s="8">
-        <v>13.866</v>
+        <v>10.866</v>
       </c>
       <c r="C73" s="3">
-        <v>1</v>
-      </c>
-      <c r="D73" s="3">
-        <v>1</v>
+        <v>0.16</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0.27704999999999996</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>19</v>
@@ -1847,6 +1806,52 @@
         <v>43831</v>
       </c>
       <c r="G73" s="6">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B74" s="8">
+        <v>11.167</v>
+      </c>
+      <c r="C74" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0.36709999999999998</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F74" s="6">
+        <v>43831</v>
+      </c>
+      <c r="G74" s="6">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B75" s="8">
+        <v>13.866</v>
+      </c>
+      <c r="C75" s="3">
+        <v>1</v>
+      </c>
+      <c r="D75" s="3">
+        <v>1</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F75" s="6">
+        <v>43831</v>
+      </c>
+      <c r="G75" s="6">
         <v>44896</v>
       </c>
     </row>
@@ -1866,10 +1871,10 @@
     <hyperlink ref="E9:E10" r:id="rId12" display="http://goodenergy.com/"/>
     <hyperlink ref="A12" r:id="rId13" display="https://colonialpowergroup.com/ashland/"/>
     <hyperlink ref="E12" r:id="rId14" display="https://colonialpowergroup.com/"/>
-    <hyperlink ref="A14" r:id="rId15" display="https://colonialpowergroup.com/billerica/"/>
-    <hyperlink ref="A15" r:id="rId16" display="https://colonialpowergroup.com/billerica/"/>
-    <hyperlink ref="E15" r:id="rId17" display="https://colonialpowergroup.com/"/>
-    <hyperlink ref="E14" r:id="rId18" display="https://colonialpowergroup.com/"/>
+    <hyperlink ref="A15" r:id="rId15" display="https://colonialpowergroup.com/billerica/"/>
+    <hyperlink ref="A14" r:id="rId16" display="https://colonialpowergroup.com/billerica/"/>
+    <hyperlink ref="E14" r:id="rId17" display="https://colonialpowergroup.com/"/>
+    <hyperlink ref="E15" r:id="rId18" display="https://colonialpowergroup.com/"/>
     <hyperlink ref="A20" r:id="rId19" display="https://www.brooklinema.gov/1340/Brookline-Green-Electricity"/>
     <hyperlink ref="A17" r:id="rId20" display="https://www.brooklinema.gov/1340/Brookline-Green-Electricity"/>
     <hyperlink ref="A18" r:id="rId21" display="https://www.brooklinema.gov/1340/Brookline-Green-Electricity"/>
@@ -1928,26 +1933,26 @@
     <hyperlink ref="E56" r:id="rId74" display="http://goodenergy.com/"/>
     <hyperlink ref="E57" r:id="rId75" display="http://goodenergy.com/"/>
     <hyperlink ref="E58" r:id="rId76" display="http://goodenergy.com/"/>
-    <hyperlink ref="A61" r:id="rId77" display="https://colonialpowergroup.com/tyngsborough/"/>
-    <hyperlink ref="A60" r:id="rId78" display="https://colonialpowergroup.com/tyngsborough/"/>
-    <hyperlink ref="E60" r:id="rId79" display="https://colonialpowergroup.com/"/>
-    <hyperlink ref="E61" r:id="rId80" display="https://colonialpowergroup.com/"/>
-    <hyperlink ref="A65" r:id="rId81" display="https://masspowerchoice.com/watertown"/>
-    <hyperlink ref="A63" r:id="rId82" display="https://masspowerchoice.com/watertown"/>
-    <hyperlink ref="E63" r:id="rId83" display="https://masspowerchoice.com/"/>
-    <hyperlink ref="E65" r:id="rId84" display="https://masspowerchoice.com/"/>
-    <hyperlink ref="A64" r:id="rId85" display="https://masspowerchoice.com/watertown"/>
-    <hyperlink ref="E64" r:id="rId86" display="https://masspowerchoice.com/"/>
-    <hyperlink ref="A67" r:id="rId87" display="https://masscea.com/westford/"/>
-    <hyperlink ref="E67" r:id="rId88" display="http://goodenergy.com/"/>
-    <hyperlink ref="A69" r:id="rId89" display="https://colonialpowergroup.com/williamsburg/"/>
-    <hyperlink ref="E69" r:id="rId90" display="https://colonialpowergroup.com/"/>
-    <hyperlink ref="A72" r:id="rId91" display="https://winpowerma.com/"/>
-    <hyperlink ref="A73" r:id="rId92" display="https://winpowerma.com/"/>
-    <hyperlink ref="A71" r:id="rId93" display="https://winpowerma.com/"/>
-    <hyperlink ref="E71" r:id="rId94" display="http://goodenergy.com/"/>
-    <hyperlink ref="E72" r:id="rId95" display="http://goodenergy.com/"/>
-    <hyperlink ref="E73" r:id="rId96" display="http://goodenergy.com/"/>
+    <hyperlink ref="A63" r:id="rId77" display="https://colonialpowergroup.com/tyngsborough/"/>
+    <hyperlink ref="A62" r:id="rId78" display="https://colonialpowergroup.com/tyngsborough/"/>
+    <hyperlink ref="E62" r:id="rId79" display="https://colonialpowergroup.com/"/>
+    <hyperlink ref="E63" r:id="rId80" display="https://colonialpowergroup.com/"/>
+    <hyperlink ref="A67" r:id="rId81" display="https://masspowerchoice.com/watertown"/>
+    <hyperlink ref="A65" r:id="rId82" display="https://masspowerchoice.com/watertown"/>
+    <hyperlink ref="E65" r:id="rId83" display="https://masspowerchoice.com/"/>
+    <hyperlink ref="E67" r:id="rId84" display="https://masspowerchoice.com/"/>
+    <hyperlink ref="A66" r:id="rId85" display="https://masspowerchoice.com/watertown"/>
+    <hyperlink ref="E66" r:id="rId86" display="https://masspowerchoice.com/"/>
+    <hyperlink ref="A69" r:id="rId87" display="https://masscea.com/westford/"/>
+    <hyperlink ref="E69" r:id="rId88" display="http://goodenergy.com/"/>
+    <hyperlink ref="A71" r:id="rId89" display="https://colonialpowergroup.com/williamsburg/"/>
+    <hyperlink ref="E71" r:id="rId90" display="https://colonialpowergroup.com/"/>
+    <hyperlink ref="A74" r:id="rId91" display="https://winpowerma.com/"/>
+    <hyperlink ref="A75" r:id="rId92" display="https://winpowerma.com/"/>
+    <hyperlink ref="A73" r:id="rId93" display="https://winpowerma.com/"/>
+    <hyperlink ref="E73" r:id="rId94" display="http://goodenergy.com/"/>
+    <hyperlink ref="E74" r:id="rId95" display="http://goodenergy.com/"/>
+    <hyperlink ref="E75" r:id="rId96" display="http://goodenergy.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId97"/>

--- a/explore/explore.xlsx
+++ b/explore/explore.xlsx
@@ -591,15 +591,16 @@
   <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A61" sqref="A61"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" customWidth="1"/>
     <col min="6" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -609,10 +610,10 @@
         <v>8</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>13</v>
@@ -631,11 +632,11 @@
       <c r="B3" s="8">
         <v>10.741</v>
       </c>
-      <c r="C3" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C3" s="1">
         <v>0.27705600000000002</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.16</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -655,10 +656,10 @@
         <v>10.984999999999999</v>
       </c>
       <c r="C4" s="3">
-        <v>0.16</v>
+        <v>0.26</v>
       </c>
       <c r="D4" s="3">
-        <v>0.26</v>
+        <v>0.16</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -700,11 +701,11 @@
       <c r="B7" s="8">
         <v>10.699</v>
       </c>
-      <c r="C7" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="C7" s="1">
         <v>0.27704999999999996</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.16</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
@@ -723,11 +724,11 @@
       <c r="B8" s="8">
         <v>11.029</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
+        <v>0.3871</v>
+      </c>
+      <c r="D8" s="3">
         <v>0.27</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.3871</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
@@ -796,10 +797,10 @@
         <v>11.047000000000001</v>
       </c>
       <c r="C12" s="3">
-        <v>0.16</v>
+        <v>1</v>
       </c>
       <c r="D12" s="3">
-        <v>1</v>
+        <v>0.16</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>21</v>
@@ -819,10 +820,10 @@
         <v>10.631</v>
       </c>
       <c r="C14" s="3">
-        <v>0.16</v>
+        <v>1</v>
       </c>
       <c r="D14" s="3">
-        <v>1</v>
+        <v>0.16</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>21</v>
@@ -842,10 +843,10 @@
         <v>10.733000000000001</v>
       </c>
       <c r="C15" s="3">
-        <v>0.16</v>
+        <v>1</v>
       </c>
       <c r="D15" s="3">
-        <v>1</v>
+        <v>0.16</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>21</v>
@@ -869,11 +870,11 @@
       <c r="B17" s="8">
         <v>10.715</v>
       </c>
-      <c r="C17" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="C17" s="1">
         <v>0.27704999999999996</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.16</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>19</v>
@@ -966,11 +967,11 @@
       <c r="B22" s="8">
         <v>11.12</v>
       </c>
-      <c r="C22" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="C22" s="1">
         <v>0.27704999999999996</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.16</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>14</v>
@@ -1018,10 +1019,10 @@
         <v>10.981</v>
       </c>
       <c r="C25" s="3">
-        <v>0.16</v>
+        <v>1</v>
       </c>
       <c r="D25" s="3">
-        <v>1</v>
+        <v>0.16</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>21</v>
@@ -1041,10 +1042,10 @@
         <v>10.879</v>
       </c>
       <c r="C26" s="3">
-        <v>0.16</v>
+        <v>1</v>
       </c>
       <c r="D26" s="3">
-        <v>1</v>
+        <v>0.16</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>21</v>
@@ -1068,11 +1069,11 @@
       <c r="B28" s="8">
         <v>9.4030000000000005</v>
       </c>
-      <c r="C28" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="C28" s="1">
         <v>0.27704999999999996</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.16</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>14</v>
@@ -1092,10 +1093,10 @@
         <v>10.089</v>
       </c>
       <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3">
         <v>0.36</v>
-      </c>
-      <c r="D29" s="3">
-        <v>1</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>14</v>
@@ -1117,11 +1118,11 @@
       <c r="B31" s="8">
         <v>10.43</v>
       </c>
-      <c r="C31" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="D31" s="1">
+      <c r="C31" s="1">
         <v>0.27704999999999996</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.16</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>21</v>
@@ -1143,11 +1144,11 @@
       <c r="B33" s="8">
         <v>9.9779999999999998</v>
       </c>
-      <c r="C33" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="D33" s="1">
+      <c r="C33" s="1">
         <v>0.27704999999999996</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.16</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>21</v>
@@ -1169,11 +1170,11 @@
       <c r="B35" s="8">
         <v>11.494</v>
       </c>
-      <c r="C35" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="D35" s="1">
+      <c r="C35" s="1">
         <v>0.27704999999999996</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.16</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>14</v>
@@ -1193,10 +1194,10 @@
         <v>11.624000000000001</v>
       </c>
       <c r="C36" s="3">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3">
         <v>0.21</v>
-      </c>
-      <c r="D36" s="3">
-        <v>1</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>14</v>
@@ -1241,11 +1242,11 @@
       <c r="B39" s="8">
         <v>10.401</v>
       </c>
-      <c r="C39" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="D39" s="1">
+      <c r="C39" s="1">
         <v>0.27704999999999996</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.16</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>19</v>
@@ -1264,11 +1265,11 @@
       <c r="B40" s="8">
         <v>10.521000000000001</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="1">
+        <v>0.3271</v>
+      </c>
+      <c r="D40" s="3">
         <v>0.21</v>
-      </c>
-      <c r="D40" s="1">
-        <v>0.3271</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>19</v>
@@ -1313,11 +1314,11 @@
       <c r="B43" s="8">
         <v>11.026</v>
       </c>
-      <c r="C43" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="D43" s="1">
+      <c r="C43" s="1">
         <v>0.27704999999999996</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0.16</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>14</v>
@@ -1336,11 +1337,11 @@
       <c r="B44" s="8">
         <v>11.263</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="1">
+        <v>0.377056</v>
+      </c>
+      <c r="D44" s="3">
         <v>0.26</v>
-      </c>
-      <c r="D44" s="1">
-        <v>0.377056</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>14</v>
@@ -1387,11 +1388,11 @@
       <c r="B47" s="8">
         <v>13.957000000000001</v>
       </c>
-      <c r="C47" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="D47" s="1">
+      <c r="C47" s="1">
         <v>0.27704999999999996</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0.16</v>
       </c>
       <c r="F47" s="6">
         <v>43770</v>
@@ -1412,11 +1413,11 @@
       <c r="B49" s="8">
         <v>10.87</v>
       </c>
-      <c r="C49" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="D49" s="1">
+      <c r="C49" s="1">
         <v>0.27704999999999996</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0.16</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>14</v>
@@ -1486,11 +1487,11 @@
       <c r="B53" s="8">
         <v>10.79</v>
       </c>
-      <c r="C53" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="D53" s="1">
+      <c r="C53" s="1">
         <v>0.27704999999999996</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0.16</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>21</v>
@@ -1510,10 +1511,10 @@
         <v>10.885</v>
       </c>
       <c r="C54" s="3">
-        <v>0.16</v>
+        <v>1</v>
       </c>
       <c r="D54" s="3">
-        <v>1</v>
+        <v>0.16</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>21</v>
@@ -1535,11 +1536,11 @@
       <c r="B56" s="8">
         <v>10.624000000000001</v>
       </c>
-      <c r="C56" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="D56" s="1">
+      <c r="C56" s="1">
         <v>0.27704999999999996</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0.16</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>19</v>
@@ -1558,11 +1559,11 @@
       <c r="B57" s="8">
         <v>10.749000000000001</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="1">
+        <v>0.3271</v>
+      </c>
+      <c r="D57" s="3">
         <v>0.21</v>
-      </c>
-      <c r="D57" s="1">
-        <v>0.3271</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>19</v>
@@ -1614,11 +1615,11 @@
       <c r="B62" s="8">
         <v>10.692</v>
       </c>
-      <c r="C62" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="D62" s="1">
+      <c r="C62" s="1">
         <v>0.27704999999999996</v>
+      </c>
+      <c r="D62" s="3">
+        <v>0.16</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>21</v>
@@ -1638,10 +1639,10 @@
         <v>10.733000000000001</v>
       </c>
       <c r="C63" s="3">
-        <v>0.16</v>
+        <v>1</v>
       </c>
       <c r="D63" s="3">
-        <v>1</v>
+        <v>0.16</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>21</v>
@@ -1665,11 +1666,11 @@
       <c r="B65" s="8">
         <v>10.654</v>
       </c>
-      <c r="C65" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="D65" s="1">
+      <c r="C65" s="1">
         <v>0.27704999999999996</v>
+      </c>
+      <c r="D65" s="3">
+        <v>0.16</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>14</v>
@@ -1737,11 +1738,11 @@
       <c r="B69" s="8">
         <v>10.43</v>
       </c>
-      <c r="C69" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="D69" s="1">
+      <c r="C69" s="1">
         <v>0.27704999999999996</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0.16</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>19</v>
@@ -1766,10 +1767,10 @@
         <v>10.249000000000001</v>
       </c>
       <c r="C71" s="3">
-        <v>0.16</v>
+        <v>1</v>
       </c>
       <c r="D71" s="3">
-        <v>1</v>
+        <v>0.16</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>21</v>
@@ -1793,11 +1794,11 @@
       <c r="B73" s="8">
         <v>10.866</v>
       </c>
-      <c r="C73" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="D73" s="1">
+      <c r="C73" s="1">
         <v>0.27704999999999996</v>
+      </c>
+      <c r="D73" s="3">
+        <v>0.16</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>19</v>
@@ -1816,11 +1817,11 @@
       <c r="B74" s="8">
         <v>11.167</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" s="1">
+        <v>0.36709999999999998</v>
+      </c>
+      <c r="D74" s="3">
         <v>0.25</v>
-      </c>
-      <c r="D74" s="1">
-        <v>0.36709999999999998</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>19</v>

--- a/explore/explore.xlsx
+++ b/explore/explore.xlsx
@@ -592,14 +592,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" customWidth="1"/>
     <col min="6" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -655,8 +655,8 @@
       <c r="B4" s="8">
         <v>10.984999999999999</v>
       </c>
-      <c r="C4" s="3">
-        <v>0.26</v>
+      <c r="C4" s="1">
+        <v>0.37709999999999999</v>
       </c>
       <c r="D4" s="3">
         <v>0.16</v>

--- a/explore/explore.xlsx
+++ b/explore/explore.xlsx
@@ -592,7 +592,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,8 +819,8 @@
       <c r="B14" s="8">
         <v>10.631</v>
       </c>
-      <c r="C14" s="3">
-        <v>1</v>
+      <c r="C14" s="1">
+        <v>0.27705600000000002</v>
       </c>
       <c r="D14" s="3">
         <v>0.16</v>

--- a/explore/explore.xlsx
+++ b/explore/explore.xlsx
@@ -591,8 +591,8 @@
   <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,8 +1018,8 @@
       <c r="B25" s="8">
         <v>10.981</v>
       </c>
-      <c r="C25" s="3">
-        <v>1</v>
+      <c r="C25" s="1">
+        <v>0.27704999999999996</v>
       </c>
       <c r="D25" s="3">
         <v>0.16</v>
